--- a/designs/internal_designs/productivity_db.xlsx
+++ b/designs/internal_designs/productivity_db.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiteshah\Desktop\GitHub\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp1\htdocs\productivity\designs\internal_designs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -731,14 +731,14 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.85546875" customWidth="1"/>
     <col min="6" max="6" width="16.85546875" customWidth="1"/>
     <col min="7" max="7" width="23.140625" customWidth="1"/>
